--- a/Informes/Informe_Transacciones_2025-07-15.xlsx
+++ b/Informes/Informe_Transacciones_2025-07-15.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>INFORME DIARIO TRANSACCIONES INDER</t>
   </si>
@@ -59,6 +59,9 @@
     <t>Fecha Transacción</t>
   </si>
   <si>
+    <t>Estado</t>
+  </si>
+  <si>
     <t>Descripción Paypad</t>
   </si>
   <si>
@@ -99,6 +102,9 @@
   </si>
   <si>
     <t>15/07/2025 12:12:18</t>
+  </si>
+  <si>
+    <t>Aprobada</t>
   </si>
   <si>
     <t xml:space="preserve">Goretti </t>
@@ -391,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +417,8 @@
     <col min="12" max="12" width="24.050901412963867" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -430,6 +437,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -449,6 +457,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
@@ -496,10 +505,13 @@
       <c r="O3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="P3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -515,339 +527,361 @@
       <c r="M4" s="8"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1">
         <v>41625</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" s="8">
         <v>4500</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J6" s="1">
         <v>41626</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" s="8">
         <v>4500</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>29</v>
+      <c r="P6" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J7" s="1">
         <v>41627</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M7" s="8">
         <v>4000</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J8" s="1">
         <v>41628</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M8" s="8">
         <v>4000</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1">
         <v>41632</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M9" s="8">
         <v>4000</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1">
         <v>41633</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M10" s="8">
         <v>4000</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1">
         <v>41635</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M11" s="8">
         <v>4000</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -864,13 +898,14 @@
         <v>29000</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O12" s="5"/>
+      <c r="P12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -886,57 +921,61 @@
       <c r="M13" s="8"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J14" s="1">
         <v>41673</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M14" s="8">
         <v>4500</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -953,13 +992,14 @@
         <v>4500</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O15" s="5"/>
+      <c r="P15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -976,9 +1016,10 @@
         <v>33500</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O16" s="6"/>
+      <c r="P16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
@@ -996,10 +1037,11 @@
       <c r="M17" s="8"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1015,6 +1057,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
@@ -1032,6 +1075,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
     </row>
     <row r="20" ht="200" customHeight="1"/>
   </sheetData>
